--- a/me-docs/5.Controller.xlsx
+++ b/me-docs/5.Controller.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF0796-1104-4ADA-A066-B02D99B0164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF627E5B-2FD8-4CCC-B103-91F4360D0E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controller" sheetId="1" r:id="rId1"/>
     <sheet name="controller view" sheetId="2" r:id="rId2"/>
     <sheet name="params" sheetId="3" r:id="rId3"/>
     <sheet name="category by cutomize slider" sheetId="4" r:id="rId4"/>
+    <sheet name="request" sheetId="5" r:id="rId5"/>
+    <sheet name="route name" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>php artisan make:controller SliderController</t>
   </si>
@@ -73,6 +75,12 @@
   </si>
   <si>
     <t>access url to test</t>
+  </si>
+  <si>
+    <t>Add change-status url</t>
+  </si>
+  <si>
+    <t>status action</t>
   </si>
 </sst>
 </file>
@@ -752,6 +760,143 @@
         <a:xfrm>
           <a:off x="609600" y="16192500"/>
           <a:ext cx="5695238" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151314</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>75714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F379BD-4A6D-4082-A87C-08C80F6F78A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3810000"/>
+          <a:ext cx="8685714" cy="3885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161219</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53ED5BE8-C8CE-477E-967E-30AECD80EF95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8191500"/>
+          <a:ext cx="5647619" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>398705</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5B8C2E-48CC-4963-8C26-8E9C7D5448F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10761905" cy="2885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1141,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE7B65-8B36-4E36-8701-99F1EE23D7F5}">
   <dimension ref="A2:A85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
@@ -1171,4 +1316,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E9A45F-CEC2-4560-B0F9-8337DBB68825}">
+  <dimension ref="A2:A42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5891B55F-5D82-4892-9FB8-A35DEBD2A0C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/me-docs/5.Controller.xlsx
+++ b/me-docs/5.Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF627E5B-2FD8-4CCC-B103-91F4360D0E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B81FA2-CEC6-404E-BB72-E7322AAFD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controller" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="params" sheetId="3" r:id="rId3"/>
     <sheet name="category by cutomize slider" sheetId="4" r:id="rId4"/>
     <sheet name="request" sheetId="5" r:id="rId5"/>
-    <sheet name="route name" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1322,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E9A45F-CEC2-4560-B0F9-8337DBB68825}">
   <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
@@ -1347,18 +1346,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5891B55F-5D82-4892-9FB8-A35DEBD2A0C0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>